--- a/Pass.xlsx
+++ b/Pass.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francis/Desktop/g/django_basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0D81B6D5-FA7A-8449-A077-97401BA1ECB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A0F84370-C525-9040-A4B9-B0F2B563523F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19520" xr2:uid="{7786CBC3-F014-444D-9D40-042528543981}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Gitlab</t>
     <rPh sb="0" eb="6">
@@ -194,6 +194,10 @@
   </si>
   <si>
     <t>fm**++00</t>
+  </si>
+  <si>
+    <t>dd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -663,7 +667,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.1640625" defaultRowHeight="34" customHeight="1"/>
@@ -696,6 +700,9 @@
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" customHeight="1">
